--- a/data/long_razon/P18_5-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_5-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-41,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-49,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-46,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 37,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -29,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 151,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 32,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,79; -30,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 76,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 8,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-67,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-66,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-67,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,1; -58,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,92; 116,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 62,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,07; -57,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,07; 89,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 47,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,98; -60,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,64; 89,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 44,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-73,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>112,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-78,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>110,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-76,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>111,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-81,09; -63,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,52; 189,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 31,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-85,22; -72,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,04; 167,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 16,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-80,76; -70,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,76; 160,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 15,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-66,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,92; -59,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,26; 93,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 25,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,79; -60,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,16; 105,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 17,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,6; -62,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,29; 91,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 16,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_5-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_5-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.4574038739622289</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1423594837239986</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2319892307167019</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1106371731060808</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.4823560551749854</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.5727700119448146</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.00552457802291626</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.44367676159287</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.4721609518007808</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.240689826870089</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1229382707789121</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.3072481295223059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.683541249086343</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5941236112010164</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4766694739377488</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3533354361091233</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6608934811929966</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.04235915237964184</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2483945019286985</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.01887084428445011</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6295406117285536</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1212188153857676</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.298014901971449</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.0783982795763014</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.0850869204009735</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.3622586930008166</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.04449015568591211</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.095359396464779</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.2121125569468106</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.300323866063078</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3045402740722197</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.220253231524277</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.2528838429252813</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.6979144971290284</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.06398016022991831</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.796986879192467</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.6033770955885204</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4202576680935422</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3213480159232511</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1780316340232423</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.7476062667458385</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5149281616946421</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.156666448375369</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.003692187188992228</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.684719622281637</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.4705760450578736</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.2388402797068911</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.09257062899350127</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.7119487661029131</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.07066230926563288</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.04566995506804503</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4182419945338196</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8182539317909135</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1968109087137939</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.05975045171089814</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2075492945845067</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.7476469783538684</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.2267845824033675</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.05413028586069335</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2614569399774396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.4646818837799953</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9804106635894587</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.7028068357181296</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1207054275547612</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.6719892393926922</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9225717824083054</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4373259995130847</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.291426636463805</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.6053882059294204</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.7832001289686774</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.4558001064175085</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.1062477751061928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.7619432319485191</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.194270762381143</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0243573812799293</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2223569424400693</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.8190908049630833</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.136065317172423</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.07926251079644736</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1553595510767181</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.7932715206936479</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>1.164151953362759</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.03243075018011714</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.1884095355833179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.8440319779335914</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.596926593926525</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2238857785422588</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1021659737498591</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.8800185859139635</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.6719519145723112</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2400862201921294</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.09140662835070593</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.8482664189443631</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.7706827481159756</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1915079081457371</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.01254149102034657</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.6127322653930058</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.083303642483668</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3531633396051557</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7247426285565716</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.7360263483410713</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.778777452360905</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.142963771615799</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.5167394163265517</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.7254702346295847</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.708177599061513</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1294458105982428</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.4583701209607371</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.646020262439831</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5225456637552569</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07945926575630484</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.001369167375610679</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.7339197516201865</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.6981528004151774</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.03664513576823376</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.14842583491682</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.6954133131988065</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6153473692106055</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05760021334767784</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.07585638163219907</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7218611853137867</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2179560725514241</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.07780469280605758</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1930258920283007</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.7860144409245906</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.4334740348706773</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.09348777705661784</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.03024820678216392</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.7399105914870379</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.410848832125257</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.050422017594671</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.06685674187684687</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.5505133122415692</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9183396943513542</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2731617794946494</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2444451608762672</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.6790333235751429</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9695444912176976</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.1777865161325566</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3646645622429286</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.6460057101110356</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8335553780355618</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.176470462206435</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2204576831571188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
